--- a/tests/fixtures/ump_kinase.xlsx
+++ b/tests/fixtures/ump_kinase.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Metabolites" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reactions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -59,7 +66,7 @@
     <t xml:space="preserve">ump_kinase</t>
   </si>
   <si>
-    <t xml:space="preserve">[c]: ATP + UMP &lt;==&gt; UDP + ADP</t>
+    <t xml:space="preserve">[c]: UMP + ATP &lt;==&gt; UDP + ADP</t>
   </si>
 </sst>
 </file>
@@ -243,61 +250,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.477732793522"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -311,7 +360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -323,30 +372,30 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/fixtures/ump_kinase.xlsx
+++ b/tests/fixtures/ump_kinase.xlsx
@@ -8,9 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Taxon" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Molecules" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Reactions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Genetics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Species" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Reactions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,15 +23,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Mycoplasma pneumoniae M129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosol</t>
   </si>
   <si>
     <t xml:space="preserve">Structure</t>
@@ -250,7 +263,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -262,7 +275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -270,10 +283,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -288,6 +304,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -305,48 +368,48 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.655870445344"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -360,7 +423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -377,25 +440,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
